--- a/IridescentAlchemy3-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy3-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16840" activeTab="6"/>
+    <workbookView windowHeight="16840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="制作素材" sheetId="7" r:id="rId1"/>
@@ -1494,7 +1494,7 @@
     <t>摩托车手</t>
   </si>
   <si>
-    <t>耐力急速回复</t>
+    <t>体力急速回复</t>
   </si>
   <si>
     <t>接击弹/箭强化</t>
@@ -1663,9 +1663,6 @@
   </si>
   <si>
     <t>狂化30</t>
-  </si>
-  <si>
-    <t>酒精耐性</t>
   </si>
   <si>
     <t>3件套</t>
@@ -1847,6 +1844,9 @@
   </si>
   <si>
     <t>护甲收纳口袋</t>
+  </si>
+  <si>
+    <t>耐力急速回复</t>
   </si>
   <si>
     <t>改进配件</t>
@@ -9001,8 +9001,8 @@
   <sheetPr/>
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:W137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -15487,7 +15487,7 @@
         <v>1</v>
       </c>
       <c r="V104" s="119" t="s">
-        <v>542</v>
+        <v>393</v>
       </c>
       <c r="W104" s="120">
         <v>1</v>
@@ -15639,10 +15639,10 @@
         <v>1</v>
       </c>
       <c r="X106" s="115" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y106" s="118" t="s">
         <v>543</v>
-      </c>
-      <c r="Y106" s="118" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="107" s="16" customFormat="1" spans="1:25">
@@ -15716,10 +15716,10 @@
         <v>363</v>
       </c>
       <c r="X107" s="115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y107" s="118" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="108" s="16" customFormat="1" spans="1:25">
@@ -15793,10 +15793,10 @@
         <v>2</v>
       </c>
       <c r="X108" s="115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y108" s="118" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="109" s="16" customFormat="1" spans="1:25">
@@ -15870,10 +15870,10 @@
         <v>382</v>
       </c>
       <c r="X109" s="115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y109" s="118" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="110" s="16" customFormat="1" spans="1:25">
@@ -15947,10 +15947,10 @@
         <v>380</v>
       </c>
       <c r="X110" s="115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y110" s="118" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="111" s="16" customFormat="1" spans="1:25">
@@ -16024,10 +16024,10 @@
         <v>380</v>
       </c>
       <c r="X111" s="115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y111" s="118" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="112" s="16" customFormat="1" spans="1:25">
@@ -16539,10 +16539,10 @@
         <v>380</v>
       </c>
       <c r="X118" s="115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y118" s="118" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="119" s="16" customFormat="1" spans="1:25">
@@ -16616,10 +16616,10 @@
         <v>382</v>
       </c>
       <c r="X119" s="115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y119" s="118" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="120" s="16" customFormat="1" spans="1:25">
@@ -16693,10 +16693,10 @@
         <v>2</v>
       </c>
       <c r="X120" s="115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y120" s="118" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="121" s="16" customFormat="1" spans="1:25">
@@ -16770,10 +16770,10 @@
         <v>2</v>
       </c>
       <c r="X121" s="115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y121" s="118" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="122" s="16" customFormat="1" spans="1:25">
@@ -16991,10 +16991,10 @@
         <v>382</v>
       </c>
       <c r="X124" s="115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y124" s="118" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="125" s="16" customFormat="1" spans="1:25">
@@ -17068,10 +17068,10 @@
         <v>382</v>
       </c>
       <c r="X125" s="115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y125" s="118" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="126" s="16" customFormat="1" spans="1:25">
@@ -17218,10 +17218,10 @@
         <v>382</v>
       </c>
       <c r="X127" s="115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y127" s="118" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="128" s="16" customFormat="1" spans="1:25">
@@ -17295,10 +17295,10 @@
         <v>363</v>
       </c>
       <c r="X128" s="115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y128" s="118" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="129" s="16" customFormat="1" spans="1:25">
@@ -17372,10 +17372,10 @@
         <v>380</v>
       </c>
       <c r="X129" s="115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y129" s="118" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="130" s="16" customFormat="1" spans="1:25">
@@ -17449,10 +17449,10 @@
         <v>2</v>
       </c>
       <c r="X130" s="115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y130" s="118" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="131" s="16" customFormat="1" spans="1:25">
@@ -17526,10 +17526,10 @@
         <v>382</v>
       </c>
       <c r="X131" s="115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y131" s="118" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="132" s="16" customFormat="1" spans="1:25">
@@ -17603,10 +17603,10 @@
         <v>380</v>
       </c>
       <c r="X132" s="115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y132" s="118" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="133" s="16" customFormat="1" spans="1:25">
@@ -17753,10 +17753,10 @@
         <v>380</v>
       </c>
       <c r="X134" s="115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y134" s="118" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="135" s="16" customFormat="1" spans="1:25">
@@ -17855,7 +17855,7 @@
     </row>
     <row r="137" s="16" customFormat="1" spans="1:25">
       <c r="A137" s="101" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B137" s="100" t="s">
         <v>531</v>
@@ -18022,7 +18022,7 @@
   <dimension ref="B3:AA55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -18060,7 +18060,7 @@
   <sheetData>
     <row r="3" spans="2:26">
       <c r="C3" s="72" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D3" s="72"/>
       <c r="E3" s="72"/>
@@ -18073,14 +18073,14 @@
       <c r="L3" s="72"/>
       <c r="M3" s="72"/>
       <c r="P3" s="72" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Q3" s="72"/>
       <c r="R3" s="72"/>
       <c r="S3" s="72"/>
       <c r="T3" s="72"/>
       <c r="W3" s="72" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="X3" s="72"/>
       <c r="Y3" s="72"/>
@@ -18134,22 +18134,22 @@
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
       <c r="E7" s="41" t="s">
+        <v>566</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>566</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z7" s="16" t="s">
         <v>567</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>567</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>567</v>
-      </c>
-      <c r="Z7" s="16" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="8" s="16" customFormat="1" spans="2:26">
       <c r="B8" s="85"/>
       <c r="C8" s="86" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D8" s="85" t="s">
         <v>368</v>
@@ -18158,7 +18158,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>452</v>
@@ -18167,7 +18167,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="88" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L8" s="16" t="s">
         <v>472</v>
@@ -18176,19 +18176,19 @@
         <v>5</v>
       </c>
       <c r="P8" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q8" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="S8" s="90" t="s">
         <v>573</v>
       </c>
-      <c r="S8" s="90" t="s">
+      <c r="T8" s="91" t="s">
         <v>574</v>
       </c>
-      <c r="T8" s="91" t="s">
+      <c r="W8" s="92" t="s">
         <v>575</v>
-      </c>
-      <c r="W8" s="92" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="9" s="16" customFormat="1" spans="2:26">
@@ -18213,16 +18213,16 @@
         <v>5</v>
       </c>
       <c r="Q9" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="T9" s="91" t="s">
         <v>577</v>
-      </c>
-      <c r="T9" s="91" t="s">
-        <v>578</v>
       </c>
       <c r="X9" s="16" t="s">
         <v>492</v>
       </c>
       <c r="Z9" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" s="16" customFormat="1" spans="2:26">
@@ -18247,16 +18247,16 @@
         <v>3</v>
       </c>
       <c r="Q10" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="T10" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="X10" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="X10" s="16" t="s">
+      <c r="Z10" s="16" t="s">
         <v>582</v>
-      </c>
-      <c r="Z10" s="16" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="11" s="16" customFormat="1" spans="2:26">
@@ -18285,7 +18285,7 @@
         <v>497</v>
       </c>
       <c r="Z11" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" s="16" customFormat="1" spans="2:26">
@@ -18313,7 +18313,7 @@
         <v>529</v>
       </c>
       <c r="Z12" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" s="16" customFormat="1" spans="2:26">
@@ -18338,16 +18338,16 @@
         <v>179</v>
       </c>
       <c r="P13" s="93" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q13" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="S13" s="94" t="s">
         <v>587</v>
       </c>
-      <c r="S13" s="94" t="s">
+      <c r="T13" s="91" t="s">
         <v>588</v>
-      </c>
-      <c r="T13" s="91" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="14" s="16" customFormat="1" spans="2:26">
@@ -18366,10 +18366,10 @@
         <v>5</v>
       </c>
       <c r="Q14" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="T14" s="91" t="s">
         <v>590</v>
-      </c>
-      <c r="T14" s="91" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="15" s="16" customFormat="1" spans="2:26">
@@ -18388,16 +18388,16 @@
         <v>3</v>
       </c>
       <c r="Q15" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="T15" s="16" t="s">
         <v>592</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>593</v>
       </c>
       <c r="X15" s="16" t="s">
         <v>368</v>
       </c>
       <c r="Z15" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" s="16" customFormat="1" spans="2:26">
@@ -18419,14 +18419,14 @@
         <v>361</v>
       </c>
       <c r="Z16" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17" s="16" customFormat="1" spans="2:27">
       <c r="B17" s="85"/>
       <c r="C17" s="16"/>
       <c r="H17" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I17" s="41">
         <v>5</v>
@@ -18441,7 +18441,7 @@
         <v>388</v>
       </c>
       <c r="Z17" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" s="16" customFormat="1" spans="2:27">
@@ -18460,7 +18460,7 @@
         <v>380</v>
       </c>
       <c r="X18" s="16" t="s">
-        <v>485</v>
+        <v>596</v>
       </c>
       <c r="Z18" s="16" t="s">
         <v>597</v>
@@ -20207,7 +20207,7 @@
   <sheetPr/>
   <dimension ref="C4:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:M6"/>
     </sheetView>
   </sheetViews>

--- a/IridescentAlchemy3-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy3-TraceOfBattle/ReadMe.xlsx
@@ -8128,7 +8128,7 @@
   <dimension ref="B4:L52"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42:H45"/>
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81818181818182" defaultRowHeight="14"/>
@@ -9002,7 +9002,7 @@
   <dimension ref="A1:Y150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:W137"/>
+      <selection activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>

--- a/IridescentAlchemy3-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy3-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16840" activeTab="3"/>
+    <workbookView windowHeight="16240" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="制作素材" sheetId="7" r:id="rId1"/>
@@ -2023,13 +2023,13 @@
     <t>坚韧</t>
   </si>
   <si>
-    <t>+2最大生命值</t>
+    <t>+1护甲等级</t>
   </si>
   <si>
     <t>持久</t>
   </si>
   <si>
-    <t>+4最大耐力值</t>
+    <t>+2%暴击抵抗</t>
   </si>
   <si>
     <t>凶猛</t>
@@ -2053,13 +2053,13 @@
     <t>强健</t>
   </si>
   <si>
-    <t>+3最大生命值</t>
+    <t>+1.5护甲等级</t>
   </si>
   <si>
     <t>壮硕</t>
   </si>
   <si>
-    <t>+6最大耐力值</t>
+    <t>+3%暴击抵抗</t>
   </si>
   <si>
     <t>残暴</t>
@@ -2083,13 +2083,13 @@
     <t>无畏</t>
   </si>
   <si>
-    <t>+5最大生命值</t>
+    <t>+2.5护甲等级</t>
   </si>
   <si>
     <t>庞大</t>
   </si>
   <si>
-    <t>+10最大耐力值</t>
+    <t>+5%暴击抵抗</t>
   </si>
   <si>
     <t>武器</t>
@@ -9001,7 +9001,7 @@
   <sheetPr/>
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
@@ -20207,8 +20207,8 @@
   <sheetPr/>
   <dimension ref="C4:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>

--- a/IridescentAlchemy3-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy3-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16240" activeTab="6"/>
+    <workbookView windowHeight="16240" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="制作素材" sheetId="7" r:id="rId1"/>
@@ -807,7 +807,7 @@
     <t>运动员装束</t>
   </si>
   <si>
-    <t>基础实体伤害+5</t>
+    <t>攻击力+5</t>
   </si>
   <si>
     <t>暴击抗性+5%</t>
@@ -2005,7 +2005,7 @@
     <t>凌厉</t>
   </si>
   <si>
-    <t>+2基础实体伤害</t>
+    <t>+2攻击力</t>
   </si>
   <si>
     <t>快速</t>
@@ -2035,7 +2035,7 @@
     <t>凶猛</t>
   </si>
   <si>
-    <t>+3基础实体伤害</t>
+    <t>+3攻击力</t>
   </si>
   <si>
     <t>敏捷</t>
@@ -2065,7 +2065,7 @@
     <t>残暴</t>
   </si>
   <si>
-    <t>+5基础实体伤害</t>
+    <t>+5攻击力</t>
   </si>
   <si>
     <t>精妙</t>
@@ -2098,13 +2098,13 @@
     <t>学徒</t>
   </si>
   <si>
-    <t>+5%基础实体伤害</t>
+    <t>+5%攻击力</t>
   </si>
   <si>
     <t>熟练</t>
   </si>
   <si>
-    <t>+10%基础实体伤害</t>
+    <t>+10%攻击力</t>
   </si>
   <si>
     <t>精通</t>
@@ -2119,13 +2119,13 @@
     <t>愤怒</t>
   </si>
   <si>
-    <t>+20%基础实体伤害</t>
+    <t>+20%攻击力</t>
   </si>
   <si>
     <t>野蛮</t>
   </si>
   <si>
-    <t>+25%基础实体伤害</t>
+    <t>+25%攻击力</t>
   </si>
   <si>
     <t>+10%攻击速度</t>
@@ -2407,7 +2407,7 @@
     <t>魔理沙的击晕术</t>
   </si>
   <si>
-    <t>对眩晕目标造成的基础实体伤害提升15%</t>
+    <t>对眩晕目标造成伤害时的攻击力提升15%</t>
   </si>
   <si>
     <t>courage</t>
@@ -2434,7 +2434,7 @@
     <t>魔理沙的火场怪力</t>
   </si>
   <si>
-    <t>生命在最大值10%以下时\n基础实体伤害提升40%</t>
+    <t>生命在最大值10%以下时\n攻击力提升40%</t>
   </si>
   <si>
     <t>伤害减免</t>
@@ -2476,7 +2476,7 @@
     <t>魔理沙的射击术</t>
   </si>
   <si>
-    <t>使用远程武器时的基础实体伤害提升10%</t>
+    <t>使用远程武器时的攻击力提升10%</t>
   </si>
   <si>
     <t>精神</t>
@@ -2572,7 +2572,7 @@
     <t>魔理沙的蛮干术</t>
   </si>
   <si>
-    <t>被攻击后，短时间内进行反击的基础实体伤害提升15%</t>
+    <t>被攻击后，短时间内进行反击的攻击力提升15%</t>
   </si>
   <si>
     <t>upliftment</t>
@@ -2638,7 +2638,7 @@
     <t>魔理沙的粗暴射击</t>
   </si>
   <si>
-    <t>使用远程武器时的基础实体伤害提升15%，但是会略微增加后坐力</t>
+    <t>使用远程武器时的攻击力提升15%，但是会略微增加后坐力</t>
   </si>
   <si>
     <t>魔理沙的指导术</t>
@@ -2650,13 +2650,13 @@
     <t>魔理沙的休息术</t>
   </si>
   <si>
-    <t>暂停攻击4秒后，下次进行攻击的基础实体伤害提升10%</t>
+    <t>暂停攻击4秒后，下次进行攻击的攻击力提升10%</t>
   </si>
   <si>
     <t>魔理沙的短期催眠术</t>
   </si>
   <si>
-    <t>基础实体伤害提升15</t>
+    <t>攻击力提升15</t>
   </si>
   <si>
     <t>魔理沙的轻功达人</t>
@@ -2674,7 +2674,7 @@
     <t>魔理沙的饱腹术</t>
   </si>
   <si>
-    <t>精力充沛时，基础实体伤害提升10%</t>
+    <t>精力充沛时，攻击力提升10%</t>
   </si>
   <si>
     <t>培养皿</t>
@@ -2798,7 +2798,7 @@
     <t>=</t>
   </si>
   <si>
-    <t xml:space="preserve"> ( ( ( 武器面板 ➕ 固定基础实体伤害 ) ✖ ( 百分比实体伤害 ➕ 潜行倍率 ) ✖ 百分比伤害补正 ) ➕ 固定伤害补正 ) ✖ ( 1 ➖ ( 目标被穿甲后的护甲值 ➗ 100 ) ) ✖ ( 1 ➖ ( 目标伤害减免 ) )</t>
+    <t xml:space="preserve"> ( ( ( 武器面板 ➕ 固定攻击力 ) ✖ ( 百分比实体伤害 ➕ 潜行倍率 ) ✖ 百分比伤害补正 ) ➕ 固定伤害补正 ) ✖ ( 1 ➖ ( 目标被穿甲后的护甲值 ➗ 100 ) ) ✖ ( 1 ➖ ( 目标伤害减免 ) )</t>
   </si>
 </sst>
 </file>
@@ -5460,8 +5460,8 @@
   <sheetPr/>
   <dimension ref="D21:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -5623,7 +5623,7 @@
   <sheetPr/>
   <dimension ref="B4:P76"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q66" sqref="Q66"/>
     </sheetView>
   </sheetViews>
@@ -8128,7 +8128,7 @@
   <dimension ref="B4:L52"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81818181818182" defaultRowHeight="14"/>
@@ -9001,8 +9001,8 @@
   <sheetPr/>
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="H142" sqref="H142"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -20207,8 +20207,8 @@
   <sheetPr/>
   <dimension ref="C4:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -21178,7 +21178,7 @@
   <dimension ref="C8:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>

--- a/IridescentAlchemy3-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy3-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16240" activeTab="10"/>
+    <workbookView windowHeight="16240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="制作素材" sheetId="7" r:id="rId1"/>
@@ -5460,7 +5460,7 @@
   <sheetPr/>
   <dimension ref="D21:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
@@ -5623,8 +5623,8 @@
   <sheetPr/>
   <dimension ref="B4:P76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q66" sqref="Q66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -20208,7 +20208,7 @@
   <dimension ref="C4:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
